--- a/v0.7.1/StructureDefinition-HCXProofOfPresenceExtension.xlsx
+++ b/v0.7.1/StructureDefinition-HCXProofOfPresenceExtension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1038,7 +1042,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>20</v>
@@ -1104,7 +1108,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1115,10 +1119,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1129,7 +1133,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1141,13 +1145,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1198,13 +1202,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1213,15 +1217,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1244,13 +1248,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1289,19 +1293,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1313,7 +1317,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1321,20 +1325,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -1349,13 +1353,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1406,7 +1410,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1418,7 +1422,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1426,10 +1430,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1440,7 +1444,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1452,13 +1456,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1509,13 +1513,13 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1524,19 +1528,19 @@
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1555,16 +1559,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1602,19 +1606,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1626,18 +1630,18 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1645,10 +1649,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1660,16 +1664,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1677,7 +1681,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1719,13 +1723,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1734,15 +1738,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1750,10 +1754,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1765,13 +1769,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1798,11 +1802,11 @@
         <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>75</v>
@@ -1820,33 +1824,33 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -1856,7 +1860,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1868,13 +1872,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1925,7 +1929,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1937,7 +1941,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1945,10 +1949,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1959,7 +1963,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1971,13 +1975,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2028,13 +2032,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -2043,19 +2047,19 @@
         <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2074,16 +2078,16 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2121,19 +2125,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2145,18 +2149,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2164,10 +2168,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2179,16 +2183,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2196,7 +2200,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2238,13 +2242,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2253,15 +2257,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2269,10 +2273,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2284,13 +2288,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2341,33 +2345,33 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -2389,13 +2393,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2446,7 +2450,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2458,7 +2462,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -2466,10 +2470,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2480,7 +2484,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2492,13 +2496,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2549,13 +2553,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -2564,19 +2568,19 @@
         <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2595,16 +2599,16 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2642,19 +2646,19 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2666,18 +2670,18 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2685,10 +2689,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -2700,16 +2704,16 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2717,7 +2721,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -2759,13 +2763,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -2774,15 +2778,15 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2790,10 +2794,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -2805,13 +2809,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2838,13 +2842,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -2862,33 +2866,33 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>75</v>
@@ -2898,7 +2902,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -2910,13 +2914,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2967,7 +2971,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2979,7 +2983,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>75</v>
@@ -2987,10 +2991,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3001,7 +3005,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3013,13 +3017,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3070,13 +3074,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -3085,19 +3089,19 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3116,16 +3120,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3163,19 +3167,19 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3187,18 +3191,18 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3206,10 +3210,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3221,16 +3225,16 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3238,7 +3242,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
@@ -3280,13 +3284,13 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -3295,15 +3299,15 @@
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3311,10 +3315,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3326,13 +3330,13 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3359,11 +3363,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -3381,33 +3385,33 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
@@ -3417,7 +3421,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -3429,13 +3433,13 @@
         <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3486,7 +3490,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3498,7 +3502,7 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -3506,10 +3510,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3520,7 +3524,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -3532,13 +3536,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3589,13 +3593,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -3604,19 +3608,19 @@
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -3635,16 +3639,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3682,19 +3686,19 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -3706,18 +3710,18 @@
         <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3725,10 +3729,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -3740,16 +3744,16 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -3757,7 +3761,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>75</v>
@@ -3799,13 +3803,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -3814,15 +3818,15 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3830,10 +3834,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -3845,13 +3849,13 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3902,30 +3906,30 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3933,10 +3937,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -3948,16 +3952,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4007,13 +4011,13 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
@@ -4022,15 +4026,15 @@
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4053,13 +4057,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4110,22 +4114,22 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
